--- a/Documents/労金AML_納品データ項目紐づけ資料20250711.xlsx
+++ b/Documents/労金AML_納品データ項目紐づけ資料20250711.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.開発\01.VisualStudio\net80\労働金庫連合会\01.AML業務\管理ツール\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7D1574-99EF-413A-837F-242003E4E600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="330" windowWidth="21285" windowHeight="14595" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="330" windowWidth="21285" windowHeight="14595" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="顧客情報変更データ（回答時）個人" sheetId="1" r:id="rId1"/>
@@ -30,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={5234C356-2C05-4457-8A9D-F436D126B515}</author>
   </authors>
   <commentList>
-    <comment ref="K33" authorId="0" shapeId="0" xr:uid="{3B8BF097-554D-4C4F-9817-9D2C1633FE42}">
+    <comment ref="K33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7616,7 +7615,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28">
     <font>
       <sz val="11"/>
@@ -8529,18 +8528,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 12" xfId="1" xr:uid="{D6B95148-A6FA-475E-A53D-49D5A1BF9F10}"/>
-    <cellStyle name="標準 8" xfId="2" xr:uid="{9487F406-0CD6-46B8-84F6-6373C57F1D9F}"/>
-    <cellStyle name="標準_受領レコードレイアウト" xfId="3" xr:uid="{75EC02EE-0A75-48B3-810E-0849F9214DA7}"/>
+    <cellStyle name="標準 12" xfId="1"/>
+    <cellStyle name="標準 8" xfId="2"/>
+    <cellStyle name="標準_受領レコードレイアウト" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8817,7 +8816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9453,7 +9452,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="31.5">
+    <row r="23" spans="2:13">
       <c r="B23" s="18">
         <v>21</v>
       </c>
@@ -9739,7 +9738,7 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="2:13" ht="267.75">
+    <row r="33" spans="2:13" ht="236.25">
       <c r="B33" s="18">
         <v>31</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="220.5">
+    <row r="55" spans="2:13" ht="204.75">
       <c r="B55" s="18">
         <v>53</v>
       </c>
@@ -11050,7 +11049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D779E2D-2157-4097-9E92-777569E49358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O76"/>
   <sheetViews>
     <sheetView topLeftCell="E49" workbookViewId="0">
@@ -13317,7 +13316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614E25B7-86FF-4484-8F1C-AC30DD03CE4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13721,7 +13720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E5D9B6-82A8-441B-B64D-CCECFC758487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14147,10 +14146,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29980E9F-3350-4C27-80F7-1FC4A8B071D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
@@ -14337,10 +14336,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68DDE29-FB0F-472E-9560-58D6BDBBDCA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="I109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -14368,16 +14367,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="142" t="s">
         <v>502</v>
       </c>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="N2" s="141" t="s">
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="N2" s="142" t="s">
         <v>724</v>
       </c>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="90" t="s">
@@ -14723,13 +14722,13 @@
       <c r="H13" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="J13" s="142" t="s">
+      <c r="J13" s="141" t="s">
         <v>208</v>
       </c>
-      <c r="K13" s="142" t="s">
+      <c r="K13" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="L13" s="142" t="s">
+      <c r="L13" s="141" t="s">
         <v>210</v>
       </c>
       <c r="N13" s="12" t="s">
@@ -14763,13 +14762,13 @@
       <c r="H14" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="J14" s="142" t="s">
+      <c r="J14" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="K14" s="142" t="s">
+      <c r="K14" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="L14" s="142" t="s">
+      <c r="L14" s="141" t="s">
         <v>207</v>
       </c>
       <c r="N14" s="12" t="s">
@@ -15043,13 +15042,13 @@
       <c r="H21" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="J21" s="142" t="s">
+      <c r="J21" s="141" t="s">
         <v>462</v>
       </c>
-      <c r="K21" s="142" t="s">
+      <c r="K21" s="141" t="s">
         <v>463</v>
       </c>
-      <c r="L21" s="142" t="s">
+      <c r="L21" s="141" t="s">
         <v>464</v>
       </c>
       <c r="N21" s="12" t="s">
@@ -15083,13 +15082,13 @@
       <c r="H22" s="107" t="s">
         <v>465</v>
       </c>
-      <c r="J22" s="142" t="s">
+      <c r="J22" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="142" t="s">
+      <c r="K22" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="L22" s="142" t="s">
+      <c r="L22" s="141" t="s">
         <v>119</v>
       </c>
       <c r="N22" s="12" t="s">
@@ -15231,13 +15230,13 @@
       <c r="H26" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="J26" s="142" t="s">
+      <c r="J26" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="K26" s="142" t="s">
+      <c r="K26" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="L26" s="142" t="s">
+      <c r="L26" s="141" t="s">
         <v>136</v>
       </c>
       <c r="N26" s="89"/>
@@ -16340,22 +16339,22 @@
       <c r="H56" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="J56" s="142" t="s">
+      <c r="J56" s="141" t="s">
         <v>499</v>
       </c>
-      <c r="K56" s="142" t="s">
+      <c r="K56" s="141" t="s">
         <v>500</v>
       </c>
-      <c r="L56" s="142" t="s">
+      <c r="L56" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="N56" s="142" t="s">
+      <c r="N56" s="141" t="s">
         <v>557</v>
       </c>
-      <c r="O56" s="142" t="s">
+      <c r="O56" s="141" t="s">
         <v>560</v>
       </c>
-      <c r="P56" s="142" t="s">
+      <c r="P56" s="141" t="s">
         <v>559</v>
       </c>
     </row>
@@ -16380,22 +16379,22 @@
       <c r="H57" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="J57" s="142" t="s">
+      <c r="J57" s="141" t="s">
         <v>499</v>
       </c>
-      <c r="K57" s="142" t="s">
+      <c r="K57" s="141" t="s">
         <v>500</v>
       </c>
-      <c r="L57" s="142" t="s">
+      <c r="L57" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="N57" s="142" t="s">
+      <c r="N57" s="141" t="s">
         <v>557</v>
       </c>
-      <c r="O57" s="142" t="s">
+      <c r="O57" s="141" t="s">
         <v>560</v>
       </c>
-      <c r="P57" s="142" t="s">
+      <c r="P57" s="141" t="s">
         <v>559</v>
       </c>
     </row>
@@ -16420,22 +16419,22 @@
       <c r="H58" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="J58" s="142" t="s">
+      <c r="J58" s="141" t="s">
         <v>499</v>
       </c>
-      <c r="K58" s="142" t="s">
+      <c r="K58" s="141" t="s">
         <v>500</v>
       </c>
-      <c r="L58" s="142" t="s">
+      <c r="L58" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="N58" s="142" t="s">
+      <c r="N58" s="141" t="s">
         <v>565</v>
       </c>
-      <c r="O58" s="142" t="s">
+      <c r="O58" s="141" t="s">
         <v>558</v>
       </c>
-      <c r="P58" s="142" t="s">
+      <c r="P58" s="141" t="s">
         <v>564</v>
       </c>
     </row>
@@ -16503,13 +16502,13 @@
       <c r="J60" s="89"/>
       <c r="K60" s="89"/>
       <c r="L60" s="89"/>
-      <c r="N60" s="142" t="s">
+      <c r="N60" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="O60" s="142" t="s">
+      <c r="O60" s="141" t="s">
         <v>566</v>
       </c>
-      <c r="P60" s="142" t="s">
+      <c r="P60" s="141" t="s">
         <v>567</v>
       </c>
     </row>
@@ -17047,13 +17046,13 @@
       <c r="J76" s="89"/>
       <c r="K76" s="89"/>
       <c r="L76" s="89"/>
-      <c r="N76" s="142" t="s">
+      <c r="N76" s="141" t="s">
         <v>607</v>
       </c>
-      <c r="O76" s="142" t="s">
+      <c r="O76" s="141" t="s">
         <v>608</v>
       </c>
-      <c r="P76" s="142" t="s">
+      <c r="P76" s="141" t="s">
         <v>609</v>
       </c>
     </row>
@@ -17115,13 +17114,13 @@
       <c r="J78" s="89"/>
       <c r="K78" s="89"/>
       <c r="L78" s="89"/>
-      <c r="N78" s="142" t="s">
+      <c r="N78" s="141" t="s">
         <v>613</v>
       </c>
-      <c r="O78" s="142" t="s">
+      <c r="O78" s="141" t="s">
         <v>614</v>
       </c>
-      <c r="P78" s="142" t="s">
+      <c r="P78" s="141" t="s">
         <v>615</v>
       </c>
     </row>
@@ -17183,13 +17182,13 @@
       <c r="J80" s="89"/>
       <c r="K80" s="89"/>
       <c r="L80" s="89"/>
-      <c r="N80" s="142" t="s">
+      <c r="N80" s="141" t="s">
         <v>619</v>
       </c>
-      <c r="O80" s="142" t="s">
+      <c r="O80" s="141" t="s">
         <v>620</v>
       </c>
-      <c r="P80" s="142" t="s">
+      <c r="P80" s="141" t="s">
         <v>621</v>
       </c>
     </row>
@@ -17421,13 +17420,13 @@
       <c r="J87" s="89"/>
       <c r="K87" s="89"/>
       <c r="L87" s="89"/>
-      <c r="N87" s="142" t="s">
+      <c r="N87" s="141" t="s">
         <v>640</v>
       </c>
-      <c r="O87" s="142" t="s">
+      <c r="O87" s="141" t="s">
         <v>641</v>
       </c>
-      <c r="P87" s="142" t="s">
+      <c r="P87" s="141" t="s">
         <v>642</v>
       </c>
     </row>
@@ -17489,13 +17488,13 @@
       <c r="J89" s="89"/>
       <c r="K89" s="89"/>
       <c r="L89" s="89"/>
-      <c r="N89" s="142" t="s">
+      <c r="N89" s="141" t="s">
         <v>646</v>
       </c>
-      <c r="O89" s="142" t="s">
+      <c r="O89" s="141" t="s">
         <v>647</v>
       </c>
-      <c r="P89" s="142" t="s">
+      <c r="P89" s="141" t="s">
         <v>648</v>
       </c>
     </row>
@@ -17557,13 +17556,13 @@
       <c r="J91" s="89"/>
       <c r="K91" s="89"/>
       <c r="L91" s="89"/>
-      <c r="N91" s="142" t="s">
+      <c r="N91" s="141" t="s">
         <v>652</v>
       </c>
-      <c r="O91" s="142" t="s">
+      <c r="O91" s="141" t="s">
         <v>653</v>
       </c>
-      <c r="P91" s="142" t="s">
+      <c r="P91" s="141" t="s">
         <v>654</v>
       </c>
     </row>
@@ -17795,13 +17794,13 @@
       <c r="J98" s="89"/>
       <c r="K98" s="89"/>
       <c r="L98" s="89"/>
-      <c r="N98" s="142" t="s">
+      <c r="N98" s="141" t="s">
         <v>673</v>
       </c>
-      <c r="O98" s="142" t="s">
+      <c r="O98" s="141" t="s">
         <v>674</v>
       </c>
-      <c r="P98" s="142" t="s">
+      <c r="P98" s="141" t="s">
         <v>675</v>
       </c>
     </row>
@@ -17863,13 +17862,13 @@
       <c r="J100" s="89"/>
       <c r="K100" s="89"/>
       <c r="L100" s="89"/>
-      <c r="N100" s="142" t="s">
+      <c r="N100" s="141" t="s">
         <v>679</v>
       </c>
-      <c r="O100" s="142" t="s">
+      <c r="O100" s="141" t="s">
         <v>680</v>
       </c>
-      <c r="P100" s="142" t="s">
+      <c r="P100" s="141" t="s">
         <v>681</v>
       </c>
     </row>
@@ -17931,13 +17930,13 @@
       <c r="J102" s="89"/>
       <c r="K102" s="89"/>
       <c r="L102" s="89"/>
-      <c r="N102" s="142" t="s">
+      <c r="N102" s="141" t="s">
         <v>685</v>
       </c>
-      <c r="O102" s="142" t="s">
+      <c r="O102" s="141" t="s">
         <v>686</v>
       </c>
-      <c r="P102" s="142" t="s">
+      <c r="P102" s="141" t="s">
         <v>687</v>
       </c>
     </row>
